--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79173AF0-361D-433C-BEC7-77042C09843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41FABF-ADB8-45B5-B3E1-31589D2ADE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40330" yWindow="2330" windowWidth="26400" windowHeight="18030" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40330" yWindow="2330" windowWidth="26400" windowHeight="18030" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acquisitions" sheetId="18" r:id="rId1"/>
@@ -11820,7 +11820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFCBFEC-29DF-40E8-ABA2-B3BB501AC0C1}">
   <dimension ref="A1:AL135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -18838,7 +18838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
   <dimension ref="A2:Y46"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41FABF-ADB8-45B5-B3E1-31589D2ADE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F720697-0EB8-4888-97D9-A86B4FFFE9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40330" yWindow="2330" windowWidth="26400" windowHeight="18030" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38410" yWindow="1650" windowWidth="26400" windowHeight="18030" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acquisitions" sheetId="18" r:id="rId1"/>
@@ -4567,51 +4567,45 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>7433.9822350000004</v>
+            <v>7461</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>94206</v>
+            <v>109970</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>45117</v>
+            <v>43151</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="47">
           <cell r="BI47">
-            <v>2.126122658455222</v>
+            <v>2.6432908679604714</v>
           </cell>
           <cell r="BJ47">
-            <v>5.0612666064749128</v>
+            <v>2.6900896535013326</v>
           </cell>
           <cell r="BK47">
-            <v>5.7635038396459715</v>
+            <v>2.2348683389492074</v>
           </cell>
           <cell r="BL47">
-            <v>8.0537609674345241</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="BT49"/>
+            <v>3.2935393258426968</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="BT50">
-            <v>8.8186942013873226E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="BT51"/>
+            <v>0.14932156232406713</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4994,10 +4988,10 @@
             <v>5.8262287763546796</v>
           </cell>
           <cell r="AY29">
-            <v>7.7094622081197626</v>
+            <v>7.7534622072210286</v>
           </cell>
           <cell r="AZ29">
-            <v>8.7786243176307845</v>
+            <v>8.9620598190856082</v>
           </cell>
         </row>
         <row r="34">
@@ -5017,7 +5011,7 @@
         </row>
         <row r="40">
           <cell r="BM40">
-            <v>296.28929340148335</v>
+            <v>293.01733288080106</v>
           </cell>
         </row>
       </sheetData>
@@ -6683,17 +6677,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10771</v>
+            <v>10793</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>101202</v>
+            <v>94565</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>52623</v>
+            <v>53374</v>
           </cell>
         </row>
       </sheetData>
@@ -6706,10 +6700,10 @@
             <v>2.9001048517777144</v>
           </cell>
           <cell r="BQ33">
-            <v>3.0028893337146103</v>
+            <v>2.9384676802537055</v>
           </cell>
           <cell r="BR33">
-            <v>4.4659310961776679</v>
+            <v>3.9163850065955446</v>
           </cell>
         </row>
         <row r="45">
@@ -6729,7 +6723,7 @@
         </row>
         <row r="49">
           <cell r="BZ49">
-            <v>151.96798816809454</v>
+            <v>112.1465895842522</v>
           </cell>
         </row>
       </sheetData>
@@ -7298,19 +7292,19 @@
       </c>
       <c r="E3" s="22">
         <f>D3*[2]Main!$L$3</f>
-        <v>3172674.9382532998</v>
+        <v>3184205.5799999996</v>
       </c>
       <c r="F3" s="22">
         <f>[2]Main!$L$5-[2]Main!$L$6</f>
-        <v>49089</v>
+        <v>66819</v>
       </c>
       <c r="G3" s="22">
         <f>+E3-F3</f>
-        <v>3123585.9382532998</v>
+        <v>3117386.5799999996</v>
       </c>
       <c r="H3" s="22">
         <f>+[2]Main!$L$3</f>
-        <v>7433.9822350000004</v>
+        <v>7461</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>14</v>
@@ -7320,7 +7314,7 @@
       </c>
       <c r="M3" s="135">
         <f>+[2]Model!$BT$50</f>
-        <v>8.8186942013873226E-2</v>
+        <v>0.14932156232406713</v>
       </c>
       <c r="AA3" s="123" t="s">
         <v>463</v>
@@ -9910,19 +9904,19 @@
       </c>
       <c r="E3" s="3">
         <f>+D3*H3</f>
-        <v>2032703.1199999999</v>
+        <v>2036854.96</v>
       </c>
       <c r="F3" s="3">
         <f>[9]Main!$K$5-[9]Main!$K$6</f>
-        <v>48579</v>
+        <v>41191</v>
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>1984124.1199999999</v>
+        <v>1995663.96</v>
       </c>
       <c r="H3" s="44">
         <f>+[9]Main!$K$3</f>
-        <v>10771</v>
+        <v>10793</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>653</v>
@@ -11866,7 +11860,7 @@
         <v>1999</v>
       </c>
       <c r="H2" s="110">
-        <f t="shared" ref="H2:L2" si="3">+I2-1</f>
+        <f t="shared" ref="H2:K2" si="3">+I2-1</f>
         <v>2000</v>
       </c>
       <c r="I2" s="110">
@@ -11955,31 +11949,31 @@
         <v>2023</v>
       </c>
       <c r="AF2" s="110">
-        <f>+AE2+1</f>
+        <f t="shared" ref="AF2:AL2" si="5">+AE2+1</f>
         <v>2024</v>
       </c>
       <c r="AG2" s="110">
-        <f>+AF2+1</f>
+        <f t="shared" si="5"/>
         <v>2025</v>
       </c>
       <c r="AH2" s="110">
-        <f>+AG2+1</f>
+        <f t="shared" si="5"/>
         <v>2026</v>
       </c>
       <c r="AI2" s="110">
-        <f>+AH2+1</f>
+        <f t="shared" si="5"/>
         <v>2027</v>
       </c>
       <c r="AJ2" s="110">
-        <f>+AI2+1</f>
+        <f t="shared" si="5"/>
         <v>2028</v>
       </c>
       <c r="AK2" s="110">
-        <f>+AJ2+1</f>
+        <f t="shared" si="5"/>
         <v>2029</v>
       </c>
       <c r="AL2" s="110">
-        <f>+AK2+1</f>
+        <f t="shared" si="5"/>
         <v>2030</v>
       </c>
     </row>
@@ -11991,143 +11985,143 @@
         <v>29633</v>
       </c>
       <c r="D3" s="343">
-        <f>+C3*1.02</f>
+        <f t="shared" ref="D3:I3" si="6">+C3*1.02</f>
         <v>30225.66</v>
       </c>
       <c r="E3" s="343">
-        <f>+D3*1.02</f>
+        <f t="shared" si="6"/>
         <v>30830.173200000001</v>
       </c>
       <c r="F3" s="343">
-        <f>+E3*1.02</f>
+        <f t="shared" si="6"/>
         <v>31446.776664000001</v>
       </c>
       <c r="G3" s="343">
-        <f>+F3*1.02</f>
+        <f t="shared" si="6"/>
         <v>32075.712197280001</v>
       </c>
       <c r="H3" s="343">
-        <f>+G3*1.02</f>
+        <f t="shared" si="6"/>
         <v>32717.226441225601</v>
       </c>
       <c r="I3" s="343">
-        <f>+H3*1.02</f>
+        <f t="shared" si="6"/>
         <v>33371.57097005011</v>
       </c>
       <c r="J3" s="343">
-        <f t="shared" ref="J3:AL3" si="5">+I3*1.02</f>
+        <f t="shared" ref="J3:AL3" si="7">+I3*1.02</f>
         <v>34039.002389451111</v>
       </c>
       <c r="K3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>34719.78243724013</v>
       </c>
       <c r="L3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35414.178085984931</v>
       </c>
       <c r="M3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36122.461647704629</v>
       </c>
       <c r="N3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36844.910880658725</v>
       </c>
       <c r="O3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37581.8090982719</v>
       </c>
       <c r="P3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38333.445280237342</v>
       </c>
       <c r="Q3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39100.114185842089</v>
       </c>
       <c r="R3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39882.116469558932</v>
       </c>
       <c r="S3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40679.758798950112</v>
       </c>
       <c r="T3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41493.353974929116</v>
       </c>
       <c r="U3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42323.221054427697</v>
       </c>
       <c r="V3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43169.685475516249</v>
       </c>
       <c r="W3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44033.079185026574</v>
       </c>
       <c r="X3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44913.740768727104</v>
       </c>
       <c r="Y3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45812.015584101646</v>
       </c>
       <c r="Z3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>46728.255895783681</v>
       </c>
       <c r="AA3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47662.821013699358</v>
       </c>
       <c r="AB3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48616.077433973347</v>
       </c>
       <c r="AC3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49588.398982652812</v>
       </c>
       <c r="AD3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50580.16696230587</v>
       </c>
       <c r="AE3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51591.770301551987</v>
       </c>
       <c r="AF3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>52623.605707583025</v>
       </c>
       <c r="AG3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>53676.077821734689</v>
       </c>
       <c r="AH3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>54749.599378169383</v>
       </c>
       <c r="AI3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>55844.591365732769</v>
       </c>
       <c r="AJ3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56961.483193047425</v>
       </c>
       <c r="AK3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>58100.712856908372</v>
       </c>
       <c r="AL3" s="343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>59262.727114046538</v>
       </c>
     </row>
@@ -12136,143 +12130,143 @@
         <v>414</v>
       </c>
       <c r="C4" s="342">
-        <f t="shared" ref="C4:AL4" si="6">SUM(C9:C79)</f>
+        <f t="shared" ref="C4:AK4" si="8">SUM(C9:C79)</f>
         <v>29073.446280991731</v>
       </c>
       <c r="D4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>37084.590909090912</v>
       </c>
       <c r="E4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48267.675000000003</v>
       </c>
       <c r="F4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58272.010999999999</v>
       </c>
       <c r="G4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>69188.745999999999</v>
       </c>
       <c r="H4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>79032.472999999998</v>
       </c>
       <c r="I4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>82449.252999999997</v>
       </c>
       <c r="J4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>85566</v>
       </c>
       <c r="K4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>94198</v>
       </c>
       <c r="L4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>104282</v>
       </c>
       <c r="M4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>111752.09</v>
       </c>
       <c r="N4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>114389.88</v>
       </c>
       <c r="O4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>136302.12280000001</v>
       </c>
       <c r="P4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>159915.58438400002</v>
       </c>
       <c r="Q4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>159470.07407552001</v>
       </c>
       <c r="R4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>182309.31469778559</v>
       </c>
       <c r="S4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>208420.04273871917</v>
       </c>
       <c r="T4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>226276.7525</v>
       </c>
       <c r="U4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>243539.77</v>
       </c>
       <c r="V4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>268249.96600000001</v>
       </c>
       <c r="W4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>287274.34509999998</v>
       </c>
       <c r="X4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300618.98273500003</v>
       </c>
       <c r="Y4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>342354.18403975002</v>
       </c>
       <c r="Z4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>391212.62466560001</v>
       </c>
       <c r="AA4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>440118.52913216001</v>
       </c>
       <c r="AB4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>485436.17904537602</v>
       </c>
       <c r="AC4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>546458.27</v>
       </c>
       <c r="AD4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>605587.28810000001</v>
       </c>
       <c r="AE4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>642973.81074300001</v>
       </c>
       <c r="AF4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>728928.28296529001</v>
       </c>
       <c r="AG4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>810647.53665424872</v>
       </c>
       <c r="AH4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>864615.35188882391</v>
       </c>
       <c r="AI4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>958660.56932494161</v>
       </c>
       <c r="AJ4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1080030.9756842973</v>
       </c>
       <c r="AK4" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1241978.9047148186</v>
       </c>
       <c r="AL4" s="342">
@@ -12286,23 +12280,23 @@
       </c>
       <c r="C5" s="342"/>
       <c r="D5" s="344">
-        <f t="shared" ref="D5:H5" si="7">+D4/C4-1</f>
+        <f t="shared" ref="D5:H5" si="9">+D4/C4-1</f>
         <v>0.27554850397411879</v>
       </c>
       <c r="E5" s="344">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.30155608614702745</v>
       </c>
       <c r="F5" s="344">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2072678246880546</v>
       </c>
       <c r="G5" s="344">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18734096889156615</v>
       </c>
       <c r="H5" s="344">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14227352812551342</v>
       </c>
       <c r="I5" s="344">
@@ -12310,19 +12304,19 @@
         <v>4.3232608955561913E-2</v>
       </c>
       <c r="J5" s="344">
-        <f t="shared" ref="J5" si="8">+J4/I4-1</f>
+        <f t="shared" ref="J5" si="10">+J4/I4-1</f>
         <v>3.7802004100631503E-2</v>
       </c>
       <c r="K5" s="344">
-        <f t="shared" ref="K5" si="9">+K4/J4-1</f>
+        <f t="shared" ref="K5" si="11">+K4/J4-1</f>
         <v>0.10088119112731686</v>
       </c>
       <c r="L5" s="344">
-        <f t="shared" ref="L5:M5" si="10">+L4/K4-1</f>
+        <f t="shared" ref="L5:M5" si="12">+L4/K4-1</f>
         <v>0.10705110511900462</v>
       </c>
       <c r="M5" s="344">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.1633551331965251E-2</v>
       </c>
       <c r="N5" s="344">
@@ -12330,99 +12324,99 @@
         <v>2.3603943335645861E-2</v>
       </c>
       <c r="O5" s="344">
-        <f t="shared" ref="O5:AL5" si="11">+O4/N4-1</f>
+        <f t="shared" ref="O5:AL5" si="13">+O4/N4-1</f>
         <v>0.19155752938983772</v>
       </c>
       <c r="P5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.17324353501558232</v>
       </c>
       <c r="Q5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.7859092670431407E-3</v>
       </c>
       <c r="R5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14321960251582766</v>
       </c>
       <c r="S5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14322212819579394</v>
       </c>
       <c r="T5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.5676547834060646E-2</v>
       </c>
       <c r="U5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.6291608878380046E-2</v>
       </c>
       <c r="V5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.10146267281109789</v>
       </c>
       <c r="W5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.0920341141813781E-2</v>
       </c>
       <c r="X5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.6452590920901038E-2</v>
       </c>
       <c r="Y5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.138830891266571</v>
       </c>
       <c r="Z5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.1427131400858741</v>
       </c>
       <c r="AA5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12501105890527864</v>
       </c>
       <c r="AB5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.10296692121228079</v>
       </c>
       <c r="AC5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12570569230053197</v>
       </c>
       <c r="AD5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.10820408683722538</v>
       </c>
       <c r="AE5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.1735976592735886E-2</v>
       </c>
       <c r="AF5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.13368269560305079</v>
       </c>
       <c r="AG5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.11210877064136371</v>
       </c>
       <c r="AH5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.6573711501442645E-2</v>
       </c>
       <c r="AI5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.10877116307346157</v>
       </c>
       <c r="AJ5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12660414983461865</v>
       </c>
       <c r="AK5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14994748546717629</v>
       </c>
       <c r="AL5" s="344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.11187243847503447</v>
       </c>
     </row>
@@ -12473,115 +12467,115 @@
         <v>9.8111720990084464E-4</v>
       </c>
       <c r="D7" s="345">
-        <f t="shared" ref="D7:AL7" si="12">(D4/1000)/D3</f>
+        <f t="shared" ref="D7:AL7" si="14">(D4/1000)/D3</f>
         <v>1.226924107168906E-3</v>
       </c>
       <c r="E7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5655985675747032E-3</v>
       </c>
       <c r="F7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.8530360558927904E-3</v>
       </c>
       <c r="G7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.1570447313674036E-3</v>
       </c>
       <c r="H7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.4156226427682298E-3</v>
       </c>
       <c r="I7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.4706434430070883E-3</v>
       </c>
       <c r="J7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.5137634476184714E-3</v>
       </c>
       <c r="K7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.7130930376730719E-3</v>
       </c>
       <c r="L7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9446398486731879E-3</v>
       </c>
       <c r="M7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.093700841595362E-3</v>
       </c>
       <c r="N7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.1046317460370772E-3</v>
       </c>
       <c r="O7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.626811110758037E-3</v>
       </c>
       <c r="P7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.1716987141368136E-3</v>
       </c>
       <c r="Q7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.078506607872341E-3</v>
       </c>
       <c r="R7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.5712046108921508E-3</v>
       </c>
       <c r="S7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.1234335918456378E-3</v>
       </c>
       <c r="T7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.4533251912274846E-3</v>
       </c>
       <c r="U7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.754282493924733E-3</v>
       </c>
       <c r="V7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.2138503684984773E-3</v>
       </c>
       <c r="W7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.524057604349584E-3</v>
       </c>
       <c r="X7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.6932519444988514E-3</v>
       </c>
       <c r="Y7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.4730216445346434E-3</v>
       </c>
       <c r="Z7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.3720784601528288E-3</v>
       </c>
       <c r="AA7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.2340008369554989E-3</v>
       </c>
       <c r="AB7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.9850955623612056E-3</v>
       </c>
       <c r="AC7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1019881286975284E-2</v>
       </c>
       <c r="AD7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1972821057536349E-2</v>
       </c>
       <c r="AE7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2462720449111203E-2</v>
       </c>
       <c r="AF7" s="345">
@@ -12589,27 +12583,27 @@
         <v>1.3851735797348679E-2</v>
       </c>
       <c r="AG7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.510258516552785E-2</v>
       </c>
       <c r="AH7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5792176777709478E-2</v>
       </c>
       <c r="AI7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.716657864047319E-2</v>
       </c>
       <c r="AJ7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.8960724249822963E-2</v>
       </c>
       <c r="AK7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.1376310954627865E-2</v>
       </c>
       <c r="AL7" s="345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3301697045806549E-2</v>
       </c>
     </row>
@@ -12885,19 +12879,19 @@
         <v>201310.2</v>
       </c>
       <c r="AI10" s="111">
-        <f t="shared" ref="AH10:AL10" si="13">+AH10*1.05</f>
+        <f t="shared" ref="AI10:AL10" si="15">+AH10*1.05</f>
         <v>211375.71000000002</v>
       </c>
       <c r="AJ10" s="111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>221944.49550000002</v>
       </c>
       <c r="AK10" s="111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>233041.72027500003</v>
       </c>
       <c r="AL10" s="111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>244693.80628875003</v>
       </c>
     </row>
@@ -13007,29 +13001,29 @@
         <v>49768.950000000004</v>
       </c>
       <c r="AH11" s="111">
-        <f t="shared" ref="AH11:AL11" si="14">+AG11*1.05</f>
+        <f t="shared" ref="AH11:AL11" si="16">+AG11*1.05</f>
         <v>52257.397500000006</v>
       </c>
       <c r="AI11" s="111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>54870.26737500001</v>
       </c>
       <c r="AJ11" s="111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>57613.780743750016</v>
       </c>
       <c r="AK11" s="111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>60494.469780937521</v>
       </c>
       <c r="AL11" s="111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>63519.193269984396</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="110">
-        <f t="shared" ref="A12:A76" si="15">+A11+1</f>
+        <f t="shared" ref="A12:A76" si="17">+A11+1</f>
         <v>4</v>
       </c>
       <c r="B12" s="110" t="s">
@@ -13151,7 +13145,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="B13" s="110" t="s">
@@ -13275,25 +13269,25 @@
         <v>34431.465599999996</v>
       </c>
       <c r="AI13" s="111">
-        <f t="shared" ref="AI13:AL13" si="16">+AH13*0.95</f>
+        <f t="shared" ref="AI13:AL13" si="18">+AH13*0.95</f>
         <v>32709.892319999995</v>
       </c>
       <c r="AJ13" s="111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>31074.397703999995</v>
       </c>
       <c r="AK13" s="111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>29520.677818799995</v>
       </c>
       <c r="AL13" s="111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>28044.643927859994</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="B14" s="110" t="s">
@@ -13401,29 +13395,29 @@
         <v>27090</v>
       </c>
       <c r="AH14" s="111">
-        <f t="shared" ref="AH14:AL14" si="17">+AG14*0.95</f>
+        <f t="shared" ref="AH14:AL14" si="19">+AG14*0.95</f>
         <v>25735.5</v>
       </c>
       <c r="AI14" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>24448.724999999999</v>
       </c>
       <c r="AJ14" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23226.288749999996</v>
       </c>
       <c r="AK14" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22064.974312499995</v>
       </c>
       <c r="AL14" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20961.725596874996</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="B15" s="110" t="s">
@@ -13545,7 +13539,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="B16" s="337" t="s">
@@ -13670,7 +13664,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="B17" s="110" t="s">
@@ -13794,7 +13788,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="B18" s="110" t="s">
@@ -13916,7 +13910,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="B19" s="110" t="s">
@@ -14028,17 +14022,17 @@
         <v>8791.74</v>
       </c>
       <c r="AK19" s="111">
-        <f t="shared" ref="AK19:AL19" si="18">+AJ19*0.9</f>
+        <f t="shared" ref="AK19:AL19" si="20">+AJ19*0.9</f>
         <v>7912.5659999999998</v>
       </c>
       <c r="AL19" s="111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7121.3094000000001</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="B20" s="337" t="s">
@@ -14075,31 +14069,31 @@
         <v>6400</v>
       </c>
       <c r="M20" s="111">
-        <f>+L20*1.03</f>
+        <f t="shared" ref="M20:S20" si="21">+L20*1.03</f>
         <v>6592</v>
       </c>
       <c r="N20" s="111">
-        <f>+M20*1.03</f>
+        <f t="shared" si="21"/>
         <v>6789.76</v>
       </c>
       <c r="O20" s="111">
-        <f>+N20*1.03</f>
+        <f t="shared" si="21"/>
         <v>6993.4528</v>
       </c>
       <c r="P20" s="111">
-        <f>+O20*1.03</f>
+        <f t="shared" si="21"/>
         <v>7203.2563840000003</v>
       </c>
       <c r="Q20" s="111">
-        <f>+P20*1.03</f>
+        <f t="shared" si="21"/>
         <v>7419.3540755200002</v>
       </c>
       <c r="R20" s="111">
-        <f>+Q20*1.03</f>
+        <f t="shared" si="21"/>
         <v>7641.9346977856003</v>
       </c>
       <c r="S20" s="111">
-        <f>+R20*1.03</f>
+        <f t="shared" si="21"/>
         <v>7871.1927387191681</v>
       </c>
       <c r="T20" s="111">
@@ -14129,57 +14123,57 @@
         <v>10000</v>
       </c>
       <c r="AA20" s="111">
-        <f>+Z20*1.03</f>
+        <f t="shared" ref="AA20:AG20" si="22">+Z20*1.03</f>
         <v>10300</v>
       </c>
       <c r="AB20" s="111">
-        <f>+AA20*1.03</f>
+        <f t="shared" si="22"/>
         <v>10609</v>
       </c>
       <c r="AC20" s="111">
-        <f>+AB20*1.03</f>
+        <f t="shared" si="22"/>
         <v>10927.27</v>
       </c>
       <c r="AD20" s="111">
-        <f>+AC20*1.03</f>
+        <f t="shared" si="22"/>
         <v>11255.088100000001</v>
       </c>
       <c r="AE20" s="111">
-        <f>+AD20*1.03</f>
+        <f t="shared" si="22"/>
         <v>11592.740743</v>
       </c>
       <c r="AF20" s="111">
-        <f>+AE20*1.03</f>
+        <f t="shared" si="22"/>
         <v>11940.52296529</v>
       </c>
       <c r="AG20" s="111">
-        <f>+AF20*1.03</f>
+        <f t="shared" si="22"/>
         <v>12298.7386542487</v>
       </c>
       <c r="AH20" s="111">
-        <f t="shared" ref="AH20:AJ20" si="19">+AG20*0.9</f>
+        <f t="shared" ref="AH20:AJ20" si="23">+AG20*0.9</f>
         <v>11068.86478882383</v>
       </c>
       <c r="AI20" s="111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9961.9783099414472</v>
       </c>
       <c r="AJ20" s="111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8965.780478947303</v>
       </c>
       <c r="AK20" s="111">
-        <f t="shared" ref="AK20:AL20" si="20">+AJ20*0.9</f>
+        <f t="shared" ref="AK20:AL20" si="24">+AJ20*0.9</f>
         <v>8069.202431052573</v>
       </c>
       <c r="AL20" s="111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>7262.2821879473158</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="B21" s="112" t="s">
@@ -14279,29 +14273,29 @@
         <v>10360</v>
       </c>
       <c r="AH21" s="111">
-        <f t="shared" ref="AH21:AJ21" si="21">+AG21*0.9</f>
+        <f t="shared" ref="AH21:AJ21" si="25">+AG21*0.9</f>
         <v>9324</v>
       </c>
       <c r="AI21" s="111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8391.6</v>
       </c>
       <c r="AJ21" s="111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7552.4400000000005</v>
       </c>
       <c r="AK21" s="111">
-        <f t="shared" ref="AK21:AL21" si="22">+AJ21*0.9</f>
+        <f t="shared" ref="AK21:AL21" si="26">+AJ21*0.9</f>
         <v>6797.1960000000008</v>
       </c>
       <c r="AL21" s="111">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6117.4764000000005</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="B22" s="337" t="s">
@@ -14401,29 +14395,29 @@
         <v>6131</v>
       </c>
       <c r="AH22" s="111">
-        <f>+AG22</f>
+        <f t="shared" ref="AH22:AJ23" si="27">+AG22</f>
         <v>6131</v>
       </c>
       <c r="AI22" s="111">
-        <f>+AH22</f>
+        <f t="shared" si="27"/>
         <v>6131</v>
       </c>
       <c r="AJ22" s="111">
-        <f>+AI22</f>
+        <f t="shared" si="27"/>
         <v>6131</v>
       </c>
       <c r="AK22" s="111">
-        <f t="shared" ref="AK22:AL22" si="23">+AJ22</f>
+        <f t="shared" ref="AK22:AL22" si="28">+AJ22</f>
         <v>6131</v>
       </c>
       <c r="AL22" s="111">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>6131</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="B23" s="110" t="s">
@@ -14523,29 +14517,29 @@
         <v>5089</v>
       </c>
       <c r="AH23" s="111">
-        <f>+AG23</f>
+        <f t="shared" si="27"/>
         <v>5089</v>
       </c>
       <c r="AI23" s="111">
-        <f>+AH23</f>
+        <f t="shared" si="27"/>
         <v>5089</v>
       </c>
       <c r="AJ23" s="111">
-        <f>+AI23</f>
+        <f t="shared" si="27"/>
         <v>5089</v>
       </c>
       <c r="AK23" s="111">
-        <f t="shared" ref="AK23:AL23" si="24">+AJ23</f>
+        <f t="shared" ref="AK23:AL23" si="29">+AJ23</f>
         <v>5089</v>
       </c>
       <c r="AL23" s="111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5089</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="B24" s="110" t="s">
@@ -14645,29 +14639,29 @@
         <v>5089</v>
       </c>
       <c r="AH24" s="111">
-        <f>+AG24*0.9</f>
+        <f t="shared" ref="AH24:AJ26" si="30">+AG24*0.9</f>
         <v>4580.1000000000004</v>
       </c>
       <c r="AI24" s="111">
-        <f>+AH24*0.9</f>
+        <f t="shared" si="30"/>
         <v>4122.09</v>
       </c>
       <c r="AJ24" s="111">
-        <f>+AI24*0.9</f>
+        <f t="shared" si="30"/>
         <v>3709.8810000000003</v>
       </c>
       <c r="AK24" s="111">
-        <f t="shared" ref="AK24:AL24" si="25">+AJ24*0.9</f>
+        <f t="shared" ref="AK24:AL24" si="31">+AJ24*0.9</f>
         <v>3338.8929000000003</v>
       </c>
       <c r="AL24" s="111">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3005.0036100000002</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="B25" s="110" t="s">
@@ -14736,27 +14730,27 @@
         <v>1116.4160000000002</v>
       </c>
       <c r="W25" s="111">
-        <f>+V25*1.1</f>
+        <f t="shared" ref="W25:AB25" si="32">+V25*1.1</f>
         <v>1228.0576000000003</v>
       </c>
       <c r="X25" s="111">
-        <f>+W25*1.1</f>
+        <f t="shared" si="32"/>
         <v>1350.8633600000005</v>
       </c>
       <c r="Y25" s="111">
-        <f>+X25*1.1</f>
+        <f t="shared" si="32"/>
         <v>1485.9496960000006</v>
       </c>
       <c r="Z25" s="111">
-        <f>+Y25*1.1</f>
+        <f t="shared" si="32"/>
         <v>1634.5446656000008</v>
       </c>
       <c r="AA25" s="111">
-        <f>+Z25*1.1</f>
+        <f t="shared" si="32"/>
         <v>1797.999132160001</v>
       </c>
       <c r="AB25" s="111">
-        <f>+AA25*1.1</f>
+        <f t="shared" si="32"/>
         <v>1977.7990453760012</v>
       </c>
       <c r="AC25" s="111">
@@ -14775,29 +14769,29 @@
         <v>4963</v>
       </c>
       <c r="AH25" s="111">
-        <f>+AG25*0.9</f>
+        <f t="shared" si="30"/>
         <v>4466.7</v>
       </c>
       <c r="AI25" s="111">
-        <f>+AH25*0.9</f>
+        <f t="shared" si="30"/>
         <v>4020.0299999999997</v>
       </c>
       <c r="AJ25" s="111">
-        <f>+AI25*0.9</f>
+        <f t="shared" si="30"/>
         <v>3618.027</v>
       </c>
       <c r="AK25" s="111">
-        <f t="shared" ref="AK25:AL25" si="26">+AJ25*0.9</f>
+        <f t="shared" ref="AK25:AL25" si="33">+AJ25*0.9</f>
         <v>3256.2243000000003</v>
       </c>
       <c r="AL25" s="111">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>2930.6018700000004</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="B26" s="110" t="s">
@@ -14897,29 +14891,29 @@
         <v>4665</v>
       </c>
       <c r="AH26" s="111">
-        <f>+AG26*0.9</f>
+        <f t="shared" si="30"/>
         <v>4198.5</v>
       </c>
       <c r="AI26" s="111">
-        <f>+AH26*0.9</f>
+        <f t="shared" si="30"/>
         <v>3778.65</v>
       </c>
       <c r="AJ26" s="111">
-        <f>+AI26*0.9</f>
+        <f t="shared" si="30"/>
         <v>3400.7850000000003</v>
       </c>
       <c r="AK26" s="111">
-        <f t="shared" ref="AK26:AL26" si="27">+AJ26*0.9</f>
+        <f t="shared" ref="AK26:AL26" si="34">+AJ26*0.9</f>
         <v>3060.7065000000002</v>
       </c>
       <c r="AL26" s="111">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>2754.6358500000001</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="B27" s="337" t="s">
@@ -15041,7 +15035,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="B28" s="111" t="s">
@@ -15163,7 +15157,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="B29" s="110" t="s">
@@ -15268,25 +15262,25 @@
         <v>2340.36</v>
       </c>
       <c r="AI29" s="111">
-        <f t="shared" ref="AI29:AL29" si="28">+AH29*0.9</f>
+        <f t="shared" ref="AI29:AL29" si="35">+AH29*0.9</f>
         <v>2106.3240000000001</v>
       </c>
       <c r="AJ29" s="111">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1895.6916000000001</v>
       </c>
       <c r="AK29" s="111">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1706.1224400000001</v>
       </c>
       <c r="AL29" s="111">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1535.5101960000002</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="B30" s="337" t="s">
@@ -15353,7 +15347,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="B31" s="110" t="s">
@@ -15453,29 +15447,29 @@
         <v>2830</v>
       </c>
       <c r="AH31" s="111">
-        <f t="shared" ref="AH31:AL31" si="29">+AG31*0.9</f>
+        <f t="shared" ref="AH31:AL31" si="36">+AG31*0.9</f>
         <v>2547</v>
       </c>
       <c r="AI31" s="111">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2292.3000000000002</v>
       </c>
       <c r="AJ31" s="111">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2063.0700000000002</v>
       </c>
       <c r="AK31" s="111">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>1856.7630000000001</v>
       </c>
       <c r="AL31" s="111">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>1671.0867000000001</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="B32" s="337" t="s">
@@ -15595,7 +15589,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="B33" s="337" t="s">
@@ -15712,7 +15706,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="B34" s="337" t="s">
@@ -15834,7 +15828,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="B35" s="337" t="s">
@@ -15938,25 +15932,25 @@
         <v>795.16</v>
       </c>
       <c r="AI35" s="111">
-        <f t="shared" ref="AI35:AL35" si="30">+AH35*1.03</f>
+        <f t="shared" ref="AI35:AL35" si="37">+AH35*1.03</f>
         <v>819.01480000000004</v>
       </c>
       <c r="AJ35" s="111">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>843.5852440000001</v>
       </c>
       <c r="AK35" s="111">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>868.8928013200001</v>
       </c>
       <c r="AL35" s="111">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>894.95958535960017</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="B36" s="337" t="s">
@@ -16066,7 +16060,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="B37" s="337" t="s">
@@ -16109,7 +16103,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="B38" s="337" t="s">
@@ -16152,7 +16146,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="B39" s="337" t="s">
@@ -16274,7 +16268,7 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="B40" s="337" t="s">
@@ -16396,7 +16390,7 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="B41" s="337" t="s">
@@ -16439,7 +16433,7 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="B42" s="337" t="s">
@@ -16482,7 +16476,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="B43" s="337" t="s">
@@ -16525,7 +16519,7 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="B44" s="337" t="s">
@@ -16568,7 +16562,7 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="B45" s="337" t="s">
@@ -16629,7 +16623,7 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="B46" s="337" t="s">
@@ -16672,7 +16666,7 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="B47" s="337" t="s">
@@ -16715,7 +16709,7 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="B48" s="337" t="s">
@@ -16758,7 +16752,7 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="B49" s="337" t="s">
@@ -16801,7 +16795,7 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="B50" s="337" t="s">
@@ -16844,7 +16838,7 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="B51" s="337" t="s">
@@ -16887,7 +16881,7 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="B52" s="337" t="s">
@@ -16930,7 +16924,7 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
       <c r="B53" s="337" t="s">
@@ -16973,7 +16967,7 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="B54" s="337" t="s">
@@ -17016,7 +17010,7 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="B55" s="337" t="s">
@@ -17059,7 +17053,7 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="B56" s="337" t="s">
@@ -17102,7 +17096,7 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
       <c r="B57" s="337" t="s">
@@ -17145,7 +17139,7 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="B58" s="337" t="s">
@@ -17188,7 +17182,7 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="B59" s="337" t="s">
@@ -17231,7 +17225,7 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
       <c r="B60" s="337" t="s">
@@ -17274,7 +17268,7 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>53</v>
       </c>
       <c r="B61" s="337" t="s">
@@ -17317,7 +17311,7 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
       <c r="B62" s="337" t="s">
@@ -17360,7 +17354,7 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="B63" s="337" t="s">
@@ -17403,7 +17397,7 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="B64" s="337" t="s">
@@ -17446,7 +17440,7 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="B65" s="337" t="s">
@@ -17513,7 +17507,7 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="B66" s="337" t="s">
@@ -17556,7 +17550,7 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
       <c r="B67" s="337" t="s">
@@ -17599,7 +17593,7 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="B68" s="337" t="s">
@@ -17642,7 +17636,7 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>61</v>
       </c>
       <c r="B69" s="337" t="s">
@@ -17685,7 +17679,7 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>62</v>
       </c>
       <c r="B70" s="337" t="s">
@@ -17728,7 +17722,7 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>63</v>
       </c>
       <c r="B71" s="337" t="s">
@@ -17771,7 +17765,7 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="B72" s="337" t="s">
@@ -17814,7 +17808,7 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="B73" s="337" t="s">
@@ -17857,7 +17851,7 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>66</v>
       </c>
       <c r="B74" s="337" t="s">
@@ -17900,7 +17894,7 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="B75" s="337" t="s">
@@ -17943,7 +17937,7 @@
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
       <c r="B76" s="337" t="s">
@@ -17986,7 +17980,7 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="110">
-        <f t="shared" ref="A77:A80" si="31">+A76+1</f>
+        <f t="shared" ref="A77:A80" si="38">+A76+1</f>
         <v>69</v>
       </c>
       <c r="B77" s="337" t="s">
@@ -18029,7 +18023,7 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="110">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>70</v>
       </c>
       <c r="B78" s="337" t="s">
@@ -18072,7 +18066,7 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="110">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>71</v>
       </c>
       <c r="B79" s="337" t="s">
@@ -18115,7 +18109,7 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="110">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>72</v>
       </c>
       <c r="B80" s="337" t="s">
@@ -18412,27 +18406,27 @@
         <v>0</v>
       </c>
       <c r="N88" s="111">
-        <f t="shared" ref="N88:P88" si="32">+O88/1.5</f>
+        <f t="shared" ref="N88:P88" si="39">+O88/1.5</f>
         <v>182.31367169638773</v>
       </c>
       <c r="O88" s="111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>273.47050754458161</v>
       </c>
       <c r="P88" s="111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>410.20576131687244</v>
       </c>
       <c r="Q88" s="111">
-        <f t="shared" ref="Q88:S88" si="33">+R88/1.5</f>
+        <f t="shared" ref="Q88:S88" si="40">+R88/1.5</f>
         <v>615.30864197530866</v>
       </c>
       <c r="R88" s="111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>922.96296296296293</v>
       </c>
       <c r="S88" s="111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1384.4444444444443</v>
       </c>
       <c r="T88" s="111">
@@ -18842,7 +18836,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18867,23 +18861,23 @@
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L2" s="208">
         <f>AVERAGE(L4:L5)</f>
-        <v>0.62796315055760088</v>
+        <v>0.60998534549890704</v>
       </c>
       <c r="P2" s="209">
         <f>AVERAGE(P4:P5)</f>
-        <v>119.76683769975703</v>
+        <v>99.541104092290709</v>
       </c>
       <c r="Q2" s="210">
         <f>AVERAGE(Q4:Q5)</f>
-        <v>57.143396404016364</v>
+        <v>94.141528615117295</v>
       </c>
       <c r="R2" s="210">
         <f>AVERAGE(R4:R5)</f>
-        <v>48.384443690918729</v>
+        <v>106.6812659616713</v>
       </c>
       <c r="S2" s="211">
         <f>AVERAGE(S4:S5)</f>
-        <v>36.428124305612059</v>
+        <v>74.447011501450561</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18975,19 +18969,19 @@
       </c>
       <c r="E4" s="206">
         <f>D4*[2]Main!$L$3</f>
-        <v>3245007.5853998503</v>
+        <v>3256801.11</v>
       </c>
       <c r="F4" s="206">
         <f>[2]Main!$L$5-[2]Main!$L$6</f>
-        <v>49089</v>
+        <v>66819</v>
       </c>
       <c r="G4" s="206">
         <f>+E4-F4</f>
-        <v>3195918.5853998503</v>
+        <v>3189982.11</v>
       </c>
       <c r="H4" s="206">
         <f>+[2]Main!$L$3</f>
-        <v>7433.9822350000004</v>
+        <v>7461</v>
       </c>
       <c r="I4" s="301" t="s">
         <v>668</v>
@@ -18999,7 +18993,7 @@
       <c r="L4" s="208"/>
       <c r="M4" s="208">
         <f>+[2]Model!$BT$50</f>
-        <v>8.8186942013873226E-2</v>
+        <v>0.14932156232406713</v>
       </c>
       <c r="N4" s="208">
         <f>+[2]Model!$BT$49</f>
@@ -19011,35 +19005,35 @@
       </c>
       <c r="P4" s="209">
         <f>+$G$4/$H$4/T4</f>
-        <v>202.20219816111654</v>
+        <v>161.75073094618389</v>
       </c>
       <c r="Q4" s="211">
         <f t="shared" ref="Q4:S4" si="0">+$G$4/$H$4/U4</f>
-        <v>84.940531397777022</v>
+        <v>158.9367958199789</v>
       </c>
       <c r="R4" s="211">
         <f t="shared" si="0"/>
-        <v>74.591201300598087</v>
+        <v>191.31070163936678</v>
       </c>
       <c r="S4" s="226">
         <f t="shared" si="0"/>
-        <v>53.379616906701763</v>
+        <v>129.8160391288431</v>
       </c>
       <c r="T4" s="227">
         <f>+[2]Model!$BI$47</f>
-        <v>2.126122658455222</v>
+        <v>2.6432908679604714</v>
       </c>
       <c r="U4" s="224">
         <f>+[2]Model!$BJ$47</f>
-        <v>5.0612666064749128</v>
+        <v>2.6900896535013326</v>
       </c>
       <c r="V4" s="224">
         <f>+[2]Model!$BK$47</f>
-        <v>5.7635038396459715</v>
+        <v>2.2348683389492074</v>
       </c>
       <c r="W4" s="228">
         <f>+[2]Model!$BL$47</f>
-        <v>8.0537609674345241</v>
+        <v>3.2935393258426968</v>
       </c>
       <c r="X4" s="204">
         <v>1975</v>
@@ -19086,11 +19080,11 @@
       </c>
       <c r="K5" s="224">
         <f>+[3]Model!$BM$40</f>
-        <v>296.28929340148335</v>
+        <v>293.01733288080106</v>
       </c>
       <c r="L5" s="208">
         <f>+K5/D5-1</f>
-        <v>0.62796315055760088</v>
+        <v>0.60998534549890704</v>
       </c>
       <c r="M5" s="208">
         <f>[3]Model!$BM$35</f>
@@ -19114,11 +19108,11 @@
       </c>
       <c r="R5" s="211">
         <f>+$G$5/$H$5/V5</f>
-        <v>22.177686081239379</v>
+        <v>22.051830283975818</v>
       </c>
       <c r="S5" s="211">
         <f>+$G$5/$H$5/W5</f>
-        <v>19.476631704522354</v>
+        <v>19.077983874058031</v>
       </c>
       <c r="T5" s="227">
         <f>[3]Model!$AW$29</f>
@@ -19130,11 +19124,11 @@
       </c>
       <c r="V5" s="224">
         <f>[3]Model!$AY$29</f>
-        <v>7.7094622081197626</v>
+        <v>7.7534622072210286</v>
       </c>
       <c r="W5" s="228">
         <f>[3]Model!$AZ$29</f>
-        <v>8.7786243176307845</v>
+        <v>8.9620598190856082</v>
       </c>
       <c r="X5" s="204">
         <v>1998</v>
@@ -19407,7 +19401,7 @@
         <v>419</v>
       </c>
       <c r="D14" s="205">
-        <v>547.96</v>
+        <v>529</v>
       </c>
       <c r="E14" s="206">
         <v>58644</v>
@@ -20059,19 +20053,19 @@
       </c>
       <c r="E3" s="22">
         <f>+D3*[9]Main!$K$3</f>
-        <v>2011161.1199999999</v>
+        <v>2015268.96</v>
       </c>
       <c r="F3" s="22">
         <f>[9]Main!$K$5-[9]Main!$K$6</f>
-        <v>48579</v>
+        <v>41191</v>
       </c>
       <c r="G3" s="22">
         <f>+E3-F3</f>
-        <v>1962582.1199999999</v>
+        <v>1974077.96</v>
       </c>
       <c r="H3" s="22">
         <f>+[9]Main!$K$3</f>
-        <v>10771</v>
+        <v>10793</v>
       </c>
       <c r="I3" s="194" t="s">
         <v>612</v>
@@ -20081,11 +20075,11 @@
       </c>
       <c r="K3" s="27">
         <f>+[9]Model!$BZ$49</f>
-        <v>151.96798816809454</v>
+        <v>112.1465895842522</v>
       </c>
       <c r="L3" s="28">
         <f>K3/D3-1</f>
-        <v>-0.18611831529512357</v>
+        <v>-0.39938630256934338</v>
       </c>
       <c r="M3" s="35">
         <f>+[9]Model!$BZ$45</f>
@@ -20101,19 +20095,19 @@
       </c>
       <c r="P3" s="29">
         <f>+($G3/$H3)/T3</f>
-        <v>352.66978486730875</v>
+        <v>354.01247275211188</v>
       </c>
       <c r="Q3" s="30">
         <f>+($G3/$H3)/U3</f>
-        <v>62.828705555706001</v>
+        <v>63.067907623439851</v>
       </c>
       <c r="R3" s="30">
         <f>+($G3/$H3)/V3</f>
-        <v>60.678171442175881</v>
+        <v>62.24453177392607</v>
       </c>
       <c r="S3" s="31">
         <f>+($G3/$H3)/W3</f>
-        <v>40.799965312713276</v>
+        <v>46.702135919267533</v>
       </c>
       <c r="T3" s="32">
         <f>+[9]Model!$BO$33</f>
@@ -20125,11 +20119,11 @@
       </c>
       <c r="V3" s="27">
         <f>+[9]Model!$BQ$33</f>
-        <v>3.0028893337146103</v>
+        <v>2.9384676802537055</v>
       </c>
       <c r="W3" s="33">
         <f>+[9]Model!$BR$33</f>
-        <v>4.4659310961776679</v>
+        <v>3.9163850065955446</v>
       </c>
       <c r="X3" s="20">
         <v>1994</v>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA57526-8A42-4FE1-B52E-F87C749B28B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39B508B-1931-4298-94A4-A9F5C27AC25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52390" yWindow="1580" windowWidth="21660" windowHeight="13240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46870" yWindow="2910" windowWidth="25750" windowHeight="13240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acquisitions" sheetId="18" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="772">
   <si>
     <t>Name</t>
   </si>
@@ -2476,6 +2476,9 @@
   </si>
   <si>
     <t>Cisco</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -4182,17 +4185,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="G3">
-            <v>2834</v>
+            <v>2808.8330000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>10661</v>
+            <v>11203</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>86869</v>
+            <v>92568</v>
           </cell>
         </row>
       </sheetData>
@@ -4203,6 +4206,40 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2358.9073969999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>5430.6890000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4236,91 +4273,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Models"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>2358.9073969999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>5430.6890000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>973</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>17653</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="62">
-          <cell r="AE62">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="AE63">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="AE65">
-            <v>170.42672158668651</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4345,6 +4298,40 @@
         <row r="6">
           <cell r="M6">
             <v>56531</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>962</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>20457</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>8436</v>
           </cell>
         </row>
       </sheetData>
@@ -4401,18 +4388,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="P3">
-            <v>265</v>
+          <cell r="M3">
+            <v>331</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="P5">
-            <v>7373</v>
+          <cell r="M5">
+            <v>5027.4579999999996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="P6">
-            <v>2982</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -4423,6 +4410,40 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="P3">
+            <v>270</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="P5">
+            <v>7970</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="P6">
+            <v>2985</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4447,40 +4468,6 @@
         <row r="6">
           <cell r="L6">
             <v>986</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>331</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>5027.4579999999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -4571,16 +4558,22 @@
             <v>3.2935393258426968</v>
           </cell>
         </row>
+        <row r="49">
+          <cell r="BT49"/>
+        </row>
         <row r="50">
           <cell r="BT50">
             <v>0.14932156232406713</v>
           </cell>
         </row>
+        <row r="51">
+          <cell r="BT51"/>
+        </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5077,12 +5070,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>358.732685</v>
+            <v>407.68629800000002</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>200.15600000000001</v>
+            <v>230.34</v>
           </cell>
         </row>
         <row r="6">
@@ -5091,7 +5084,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5115,7 +5108,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5266,7 +5259,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5368,7 +5361,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6153,7 +6146,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6187,7 +6180,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19914,10 +19907,10 @@
   <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -20119,19 +20112,19 @@
       </c>
       <c r="E4" s="22">
         <f>+D4*[10]Main!$G$3</f>
-        <v>853034</v>
+        <v>845458.73300000001</v>
       </c>
       <c r="F4" s="22">
         <f>+[10]Main!$G$5-[10]Main!$G$6</f>
-        <v>-76208</v>
+        <v>-81365</v>
       </c>
       <c r="G4" s="22">
         <f>+E4-F4</f>
-        <v>929242</v>
+        <v>926823.73300000001</v>
       </c>
       <c r="H4" s="22">
         <f>+[10]Main!$G$3</f>
-        <v>2834</v>
+        <v>2808.8330000000001</v>
       </c>
       <c r="I4" s="133" t="s">
         <v>610</v>
@@ -20174,15 +20167,15 @@
         <v>412077.53318192996</v>
       </c>
       <c r="F5" s="22">
-        <f>[12]Main!$L$5-[12]Main!$L$6</f>
+        <f>[11]Main!$L$5-[11]Main!$L$6</f>
         <v>5430.6890000000003</v>
       </c>
       <c r="G5" s="22">
-        <f>E5-F5</f>
+        <f t="shared" ref="G5:G14" si="0">E5-F5</f>
         <v>406646.84418192995</v>
       </c>
       <c r="H5" s="22">
-        <f>+[12]Main!$L$3</f>
+        <f>+[11]Main!$L$3</f>
         <v>2358.9073969999999</v>
       </c>
       <c r="I5" s="245" t="s">
@@ -20210,15 +20203,15 @@
         <v>318354.5</v>
       </c>
       <c r="F6" s="22">
-        <f>+[11]Main!$L$5-[11]Main!$L$6</f>
+        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
         <v>8195</v>
       </c>
       <c r="G6" s="22">
-        <f>E6-F6</f>
+        <f t="shared" si="0"/>
         <v>310159.5</v>
       </c>
       <c r="H6" s="22">
-        <f>+[11]Main!$L$3</f>
+        <f>+[12]Main!$L$3</f>
         <v>1178</v>
       </c>
       <c r="I6" s="248" t="s">
@@ -20262,15 +20255,15 @@
         <v>241886.40000000002</v>
       </c>
       <c r="F7" s="53">
-        <f>[14]Main!$M$5-[14]Main!$M$6</f>
+        <f>[13]Main!$M$5-[13]Main!$M$6</f>
         <v>-38732</v>
       </c>
       <c r="G7" s="22">
-        <f>E7-F7</f>
+        <f t="shared" si="0"/>
         <v>280618.40000000002</v>
       </c>
       <c r="H7" s="53">
-        <f>[14]Main!$M$3</f>
+        <f>[13]Main!$M$3</f>
         <v>920</v>
       </c>
       <c r="I7" s="161" t="s">
@@ -20297,20 +20290,20 @@
         <v>246.62</v>
       </c>
       <c r="E8" s="22">
-        <f>+D8*[13]Main!$M$3</f>
-        <v>239961.26</v>
+        <f>+D8*[14]Main!$M$3</f>
+        <v>237248.44</v>
       </c>
       <c r="F8" s="22">
-        <f>+[13]Main!$M$5-[13]Main!$M$6</f>
-        <v>17653</v>
+        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
+        <v>12021</v>
       </c>
       <c r="G8" s="22">
-        <f>E8-F8</f>
-        <v>222308.26</v>
+        <f t="shared" si="0"/>
+        <v>225227.44</v>
       </c>
       <c r="H8" s="22">
-        <f>+[13]Main!$M$3</f>
-        <v>973</v>
+        <f>+[14]Main!$M$3</f>
+        <v>962</v>
       </c>
       <c r="I8" s="143" t="s">
         <v>610</v>
@@ -20319,20 +20312,20 @@
         <v>45555</v>
       </c>
       <c r="K8" s="27">
-        <f>+[13]Model!$AE$65</f>
-        <v>170.42672158668651</v>
+        <f>+[14]Model!$AE$65</f>
+        <v>0</v>
       </c>
       <c r="L8" s="28">
         <f>+K8/D8-1</f>
-        <v>-0.30895011926572657</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="28">
-        <f>+[13]Model!$AE$63</f>
-        <v>0.08</v>
+        <f>+[14]Model!$AE$63</f>
+        <v>0</v>
       </c>
       <c r="N8" s="28">
-        <f>+[13]Model!$AE$62</f>
-        <v>0.01</v>
+        <f>+[14]Model!$AE$62</f>
+        <v>0</v>
       </c>
       <c r="O8" s="28">
         <v>0</v>
@@ -20371,7 +20364,7 @@
         <v>7397</v>
       </c>
       <c r="G9" s="22">
-        <f>E9-F9</f>
+        <f t="shared" si="0"/>
         <v>189984.6</v>
       </c>
       <c r="H9" s="22">
@@ -20415,19 +20408,19 @@
         <v>220.13</v>
       </c>
       <c r="E10" s="22">
-        <f>+D10*[18]Main!$M$3</f>
+        <f>+D10*[16]Main!$M$3</f>
         <v>72863.03</v>
       </c>
       <c r="F10" s="22">
-        <f>+[18]Main!$M$5-[18]Main!$M$6</f>
+        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
         <v>5027.4579999999996</v>
       </c>
       <c r="G10" s="22">
-        <f>E10-F10</f>
+        <f t="shared" si="0"/>
         <v>67835.572</v>
       </c>
       <c r="H10" s="22">
-        <f>+[18]Main!$M$3</f>
+        <f>+[16]Main!$M$3</f>
         <v>331</v>
       </c>
       <c r="I10" s="34" t="s">
@@ -20455,19 +20448,19 @@
       </c>
       <c r="E11" s="22">
         <f>+D11*H11</f>
-        <v>62455.200000000004</v>
+        <v>63633.599999999999</v>
       </c>
       <c r="F11" s="22">
-        <f>+[16]Main!$P$5-[16]Main!$P$6</f>
-        <v>4391</v>
+        <f>+[17]Main!$P$5-[17]Main!$P$6</f>
+        <v>4985</v>
       </c>
       <c r="G11" s="22">
-        <f>E11-F11</f>
-        <v>58064.200000000004</v>
+        <f t="shared" si="0"/>
+        <v>58648.6</v>
       </c>
       <c r="H11" s="23">
-        <f>+[16]Main!$P$3</f>
-        <v>265</v>
+        <f>+[17]Main!$P$3</f>
+        <v>270</v>
       </c>
       <c r="I11" s="161" t="s">
         <v>610</v>
@@ -20493,19 +20486,19 @@
         <v>170.87</v>
       </c>
       <c r="E12" s="22">
-        <f>+D12*[17]Main!$L$3</f>
+        <f>+D12*[18]Main!$L$3</f>
         <v>44426.200000000004</v>
       </c>
       <c r="F12" s="22">
-        <f>+[17]Main!$L$5-[17]Main!$L$6</f>
+        <f>+[18]Main!$L$5-[18]Main!$L$6</f>
         <v>1576</v>
       </c>
       <c r="G12" s="22">
-        <f>E12-F12</f>
+        <f t="shared" si="0"/>
         <v>42850.200000000004</v>
       </c>
       <c r="H12" s="22">
-        <f>+[17]Main!$L$3</f>
+        <f>+[18]Main!$L$3</f>
         <v>260</v>
       </c>
       <c r="I12" s="161" t="s">
@@ -20532,7 +20525,7 @@
         <v>136.93</v>
       </c>
       <c r="E13" s="22">
-        <f>+D13*H13</f>
+        <f t="shared" ref="E13:E19" si="1">+D13*H13</f>
         <v>46166.261015750009</v>
       </c>
       <c r="F13" s="53">
@@ -20540,7 +20533,7 @@
         <v>970</v>
       </c>
       <c r="G13" s="22">
-        <f>E13-F13</f>
+        <f t="shared" si="0"/>
         <v>45196.261015750009</v>
       </c>
       <c r="H13" s="53">
@@ -20571,7 +20564,7 @@
         <v>279.26</v>
       </c>
       <c r="E14" s="22">
-        <f>+D14*H14</f>
+        <f t="shared" si="1"/>
         <v>43242.5746163</v>
       </c>
       <c r="F14" s="22">
@@ -20579,7 +20572,7 @@
         <v>2838.5529999999999</v>
       </c>
       <c r="G14" s="22">
-        <f>E14-F14</f>
+        <f t="shared" si="0"/>
         <v>40404.0216163</v>
       </c>
       <c r="H14" s="22">
@@ -20610,7 +20603,7 @@
         <v>519.58000000000004</v>
       </c>
       <c r="E15" s="146">
-        <f>+D15*H15</f>
+        <f t="shared" si="1"/>
         <v>26679.829248040001</v>
       </c>
       <c r="F15" s="22">
@@ -20662,7 +20655,7 @@
         <v>315.52</v>
       </c>
       <c r="E16" s="22">
-        <f>+D16*H16</f>
+        <f t="shared" si="1"/>
         <v>23348.48</v>
       </c>
       <c r="F16" s="22">
@@ -20714,7 +20707,7 @@
         <v>77.08</v>
       </c>
       <c r="E17" s="22">
-        <f>+D17*H17</f>
+        <f t="shared" si="1"/>
         <v>11586.475674879999</v>
       </c>
       <c r="F17" s="53">
@@ -20750,7 +20743,7 @@
         <v>92.26</v>
       </c>
       <c r="E18" s="22">
-        <f>+D18*H18</f>
+        <f t="shared" si="1"/>
         <v>15671.47328656</v>
       </c>
       <c r="F18" s="22">
@@ -20802,7 +20795,7 @@
         <v>86.53</v>
       </c>
       <c r="E19" s="22">
-        <f>+D19*H19</f>
+        <f t="shared" si="1"/>
         <v>26633.00077395</v>
       </c>
       <c r="F19" s="22">
@@ -22078,29 +22071,29 @@
         <v>617</v>
       </c>
       <c r="D64" s="21">
-        <v>16.170000000000002</v>
+        <v>17.32</v>
       </c>
       <c r="E64" s="22">
         <f>+D64*H64</f>
-        <v>5800.7075164500011</v>
+        <v>7061.1266813600005</v>
       </c>
       <c r="F64" s="22">
         <f>+[32]Main!$M$5-[32]Main!$M$6</f>
-        <v>200.15600000000001</v>
+        <v>230.34</v>
       </c>
       <c r="G64" s="22">
         <f>+E64-F64</f>
-        <v>5600.5515164500011</v>
+        <v>6830.7866813600003</v>
       </c>
       <c r="H64" s="22">
         <f>+[32]Main!$M$3</f>
-        <v>358.732685</v>
-      </c>
-      <c r="I64" s="236" t="s">
-        <v>651</v>
+        <v>407.68629800000002</v>
+      </c>
+      <c r="I64" s="334" t="s">
+        <v>771</v>
       </c>
       <c r="J64" s="37">
-        <v>45639</v>
+        <v>45922</v>
       </c>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47B168-0CB6-4F5E-AC20-F221E7D16343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F07B2A3-16BD-4D8C-869C-5A3817F04E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="2640" windowWidth="23470" windowHeight="16810" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14170" yWindow="4250" windowWidth="21860" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acquisitions" sheetId="18" r:id="rId1"/>
@@ -12176,7 +12176,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="AG9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AN18" sqref="AN18"/>
+      <selection pane="bottomRight" activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F07B2A3-16BD-4D8C-869C-5A3817F04E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107179A9-9823-4EBA-9AFC-9D969B95604A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14170" yWindow="4250" windowWidth="21860" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="3430" windowWidth="22640" windowHeight="16860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acquisitions" sheetId="18" r:id="rId1"/>
@@ -12173,10 +12173,10 @@
   <dimension ref="A1:AT261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="AG9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="AL9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AN3" sqref="AN3"/>
+      <selection pane="bottomRight" activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
